--- a/sriramModel-nelson-melancholic-patientID_60-sims-acth-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_60-sims-acth-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.85137970855092</v>
+        <v>26.93763376208062</v>
       </c>
       <c r="C2">
-        <v>26.8498175190559</v>
+        <v>26.96755770323031</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>26.88795894019529</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>26.88025364565324</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>26.82237635313504</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.81533436572043</v>
+        <v>26.9854926021951</v>
       </c>
       <c r="C3">
-        <v>26.81773811187107</v>
+        <v>27.04496991560874</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>26.88774388765484</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>26.87294219263377</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>26.75764212830084</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.79167375048689</v>
+        <v>27.04348195305904</v>
       </c>
       <c r="C4">
-        <v>26.8035423295034</v>
+        <v>27.1321674980565</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>26.89927216452993</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>26.87793278577394</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>26.70573686579935</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.78022658979011</v>
+        <v>27.11150943087883</v>
       </c>
       <c r="C5">
-        <v>26.80703194281975</v>
+        <v>27.22908315922783</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>26.92246315274116</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>26.89509778973115</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>26.66660226064387</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.78083752547069</v>
+        <v>27.1894848935432</v>
       </c>
       <c r="C6">
-        <v>26.82802644010017</v>
+        <v>27.33565162825925</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>26.95723832899372</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>26.92431481000526</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>26.64018227038853</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.7933645093337</v>
+        <v>27.27732031159163</v>
       </c>
       <c r="C7">
-        <v>26.86636033667935</v>
+        <v>27.4518094454064</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>27.00352118112099</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>26.96546619415001</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>26.62642287390257</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.81767691422462</v>
+        <v>27.37492965079645</v>
       </c>
       <c r="C8">
-        <v>26.9218806250377</v>
+        <v>27.57749490854934</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>27.06123707488684</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>27.01843862317684</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>26.62527184489811</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.8536539289802</v>
+        <v>27.48222876092418</v>
       </c>
       <c r="C9">
-        <v>26.99444487230761</v>
+        <v>27.71264787739936</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>27.1303131571797</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>27.08312288295443</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>26.63667862921682</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.90118322570777</v>
+        <v>27.59913527472466</v>
       </c>
       <c r="C10">
-        <v>27.08391966328251</v>
+        <v>27.85720986479789</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>27.2106782734701</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>27.15941356122096</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>26.66059418821616</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.96015987001368</v>
+        <v>27.72556845144752</v>
       </c>
       <c r="C11">
-        <v>27.19017917858754</v>
+        <v>28.01112352678495</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>27.30226287636664</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>27.24720875863274</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>26.69697084115449</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.03048543214026</v>
+        <v>27.86144900326323</v>
       </c>
       <c r="C12">
-        <v>27.3131039477621</v>
+        <v>28.17433271440339</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>27.40499893308754</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>27.34640986259651</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>26.7457621308855</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.11206714733001</v>
+        <v>28.00669896037751</v>
       </c>
       <c r="C13">
-        <v>27.45257970024285</v>
+        <v>28.34678234099056</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>27.51881983925298</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>27.45692130793672</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>26.80692269997393</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.20481723021939</v>
+        <v>28.16124152412396</v>
       </c>
       <c r="C14">
-        <v>27.6084963289171</v>
+        <v>28.52841821638098</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>27.64366033558285</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>27.57865035470306</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>26.88040815428199</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.30865228722926</v>
+        <v>28.32500087317659</v>
       </c>
       <c r="C15">
-        <v>27.78074689989689</v>
+        <v>28.71918685071007</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>27.77945641729289</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>27.71150684409202</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>26.96617491100743</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.42349278877701</v>
+        <v>28.49790193572834</v>
       </c>
       <c r="C16">
-        <v>27.96922651736049</v>
+        <v>28.91903524231597</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>27.92614525544138</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>27.85540309324898</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>27.06418011371328</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.54926256266672</v>
+        <v>28.67987013560582</v>
       </c>
       <c r="C17">
-        <v>28.17383128756559</v>
+        <v>29.12791064586582</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>28.08366511342292</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>28.01025357169014</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>27.17438144849316</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.68588830772096</v>
+        <v>28.87083110707469</v>
       </c>
       <c r="C18">
-        <v>28.39445722247093</v>
+        <v>29.3457603023453</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>28.2519552576191</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>28.17597468656633</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>27.29673696208646</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.83329914846676</v>
+        <v>29.0707103627794</v>
       </c>
       <c r="C19">
-        <v>28.63099901942488</v>
+        <v>29.57253105220436</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>28.43095586769196</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>28.35248459015439</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>27.43120489737998</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.99142620301911</v>
+        <v>29.27943289898477</v>
       </c>
       <c r="C20">
-        <v>28.88334868826852</v>
+        <v>29.80816915226966</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>28.62060793528925</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>28.53970296408992</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>27.57774351979716</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.1602021206967</v>
+        <v>29.49692269769042</v>
       </c>
       <c r="C21">
-        <v>29.15139398498214</v>
+        <v>30.05261969914324</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>28.82085315866699</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>28.73755075271383</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>27.73631088193234</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.33956059454329</v>
+        <v>29.72310226196045</v>
       </c>
       <c r="C22">
-        <v>29.43501683720386</v>
+        <v>30.30582605517127</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>29.03163382624236</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>28.94594986424072</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>27.90686457623547</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.52943583871022</v>
+        <v>29.95789194496201</v>
       </c>
       <c r="C23">
-        <v>29.7340912471719</v>
+        <v>30.56772946166021</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>29.25289268886379</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>29.1648228454424</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>28.08936139432602</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.72976201357374</v>
+        <v>30.20120911954448</v>
       </c>
       <c r="C24">
-        <v>30.04848099424893</v>
+        <v>30.8382679072846</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>29.48457281377191</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>29.39409253941024</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>28.28375710569506</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.94047259990488</v>
+        <v>30.45296763460131</v>
       </c>
       <c r="C25">
-        <v>30.37803696588706</v>
+        <v>31.11737539953399</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>29.72661741269581</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>29.63368169550601</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>28.49000592225014</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>29.16149966745259</v>
+        <v>30.71307628433026</v>
       </c>
       <c r="C26">
-        <v>30.72259415120241</v>
+        <v>31.4049809541785</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>29.97896964543216</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>29.88351242733885</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>28.70806003623961</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>29.39277302043579</v>
+        <v>30.98143799825455</v>
       </c>
       <c r="C27">
-        <v>31.0819680361196</v>
+        <v>31.70100724778651</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>30.24157238191398</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>30.14350577712143</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>28.93786920480253</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>29.63421922161875</v>
+        <v>31.25794836332366</v>
       </c>
       <c r="C28">
-        <v>31.45595039469839</v>
+        <v>32.00536895947156</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>30.5143679375016</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>30.4135809309084</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>29.17937988931054</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>29.88576043152746</v>
+        <v>31.54249376546516</v>
       </c>
       <c r="C29">
-        <v>31.84430448885511</v>
+        <v>32.31797108395244</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>30.79729772008705</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>30.69365440813079</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>29.4325345434628</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>30.14731305796866</v>
+        <v>31.83495000496951</v>
       </c>
       <c r="C30">
-        <v>32.24675936368892</v>
+        <v>32.63870666026673</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>31.09030181864419</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>30.98363929907207</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>29.69727086407716</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>30.41878615149627</v>
+        <v>32.1351797969757</v>
       </c>
       <c r="C31">
-        <v>32.66300372749184</v>
+        <v>32.96745384870007</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>31.39331848762593</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>31.28344397067432</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>29.97352041333199</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>30.70007950514319</v>
+        <v>32.44303014043441</v>
       </c>
       <c r="C32">
-        <v>33.09267802956638</v>
+        <v>33.30407293207558</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>31.70628351012121</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>31.59297066694502</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>30.26120744746228</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>30.99108142086081</v>
+        <v>32.75833028206716</v>
       </c>
       <c r="C33">
-        <v>33.53536603965345</v>
+        <v>33.64840279736962</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>32.02912942161321</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>31.91211420156547</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>30.56024755170113</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>31.29166604263665</v>
+        <v>33.08088756708373</v>
       </c>
       <c r="C34">
-        <v>33.99058496302062</v>
+        <v>34.00025584821756</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>32.36178444688825</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>32.24075969048931</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>30.87054536335999</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>31.6016902112533</v>
+        <v>33.41048410322902</v>
       </c>
       <c r="C35">
-        <v>34.457774559519</v>
+        <v>34.35941271113882</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>32.70417121033956</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>32.57878007055255</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>31.19199268677281</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>31.92098974435192</v>
+        <v>33.74687338160686</v>
       </c>
       <c r="C36">
-        <v>34.93628448895437</v>
+        <v>34.72561744517478</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>33.05620501185701</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>32.92603381551164</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>31.52446595861389</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>32.24937504767366</v>
+        <v>34.08977436185091</v>
       </c>
       <c r="C37">
-        <v>35.42536005937743</v>
+        <v>35.09856785651391</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>33.4177917544553</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>33.28236095416196</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>31.8678225056036</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>32.58662600796841</v>
+        <v>34.43886798462288</v>
       </c>
       <c r="C38">
-        <v>35.92412694424833</v>
+        <v>35.4779078755054</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>33.78882501715109</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>33.64757908362795</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>32.22189792726502</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>32.9324858864627</v>
+        <v>34.7937898603696</v>
       </c>
       <c r="C39">
-        <v>36.43157424531024</v>
+        <v>35.8632177856965</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>34.16918236367635</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>34.02147777090783</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>32.58650004943554</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>33.28665426692316</v>
+        <v>35.15412476315574</v>
       </c>
       <c r="C40">
-        <v>36.94653714440027</v>
+        <v>36.25400296077657</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>34.55872041697808</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>34.40381248790867</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>32.96140407829881</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>33.64877882507009</v>
+        <v>35.5194000775979</v>
       </c>
       <c r="C41">
-        <v>37.46767735753913</v>
+        <v>36.64968083280603</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>34.95726777874173</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>34.79429727841097</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>33.34634617171108</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>34.0184458010285</v>
+        <v>35.8890785497785</v>
       </c>
       <c r="C42">
-        <v>37.99346473154712</v>
+        <v>37.04956632817988</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>35.36461654823913</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>35.19259543949122</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>33.74101547960167</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>34.395169042193</v>
+        <v>36.26255055224081</v>
       </c>
       <c r="C43">
-        <v>38.52215939312024</v>
+        <v>37.45285605128093</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>35.78051065003798</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>35.59830805722875</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>34.14504442977599</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>34.77837750387185</v>
+        <v>36.63912594994789</v>
       </c>
       <c r="C44">
-        <v>39.05179498770173</v>
+        <v>37.85861149039337</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>36.20462988014747</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>36.0109601889684</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>34.5579970160421</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>35.16740113467743</v>
+        <v>37.01802583041229</v>
       </c>
       <c r="C45">
-        <v>39.58016745325781</v>
+        <v>38.26574169044591</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>36.63656904423251</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>36.42998418128195</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>34.9793547167324</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>35.56145513067945</v>
+        <v>37.39837415030993</v>
       </c>
       <c r="C46">
-        <v>40.10482844653011</v>
+        <v>38.67298623890537</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>37.07580895736908</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>36.85469946745119</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>35.40849947422967</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>35.95962268965753</v>
+        <v>37.77918976770952</v>
       </c>
       <c r="C47">
-        <v>40.62308689498955</v>
+        <v>39.07889978636444</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>37.52167968553347</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>37.28428819277261</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>35.84469339288599</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>36.36083657526265</v>
+        <v>38.15937891630625</v>
       </c>
       <c r="C48">
-        <v>41.13202186300364</v>
+        <v>39.48183996785486</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>37.97331279370071</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>37.71776626763805</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>36.28705410814904</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>36.76385968851752</v>
+        <v>38.53772865192497</v>
       </c>
       <c r="C49">
-        <v>41.62850902679347</v>
+        <v>39.87996096701495</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>38.42957992568441</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>38.15394921212897</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>36.73452616252778</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>37.16726585453178</v>
+        <v>38.91290179926867</v>
       </c>
       <c r="C50">
-        <v>42.10926821930097</v>
+        <v>40.27121396713782</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>38.88901700940477</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>38.59141036232145</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>37.1858445050426</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>37.56942176362735</v>
+        <v>39.28343416741748</v>
       </c>
       <c r="C51">
-        <v>42.57092393413001</v>
+        <v>40.65336343649436</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>39.34973551254024</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>39.02843733121293</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>37.63949480788556</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>37.96847119453695</v>
+        <v>39.64773297375652</v>
       </c>
       <c r="C52">
-        <v>43.01008790808648</v>
+        <v>41.02401308314245</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>39.80932457641443</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>39.46298309810521</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>38.09366883484116</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>38.41191522033544</v>
+        <v>40.04123003200547</v>
       </c>
       <c r="C53">
-        <v>43.46140346285925</v>
+        <v>41.41318872167838</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>40.31260155008862</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>39.94201123863647</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>38.59353919227372</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>38.94180562598961</v>
+        <v>40.49490917875656</v>
       </c>
       <c r="C54">
-        <v>43.95063656173176</v>
+        <v>41.84548689408895</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>40.89864379768544</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>40.50697340144234</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>39.17974000151201</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>39.54694360612281</v>
+        <v>40.99991046897844</v>
       </c>
       <c r="C55">
-        <v>44.46141359501863</v>
+        <v>42.30987902263814</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>41.5539972975259</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>41.14578945774436</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>39.84209865674819</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>40.21479057922436</v>
+        <v>41.54672821271233</v>
       </c>
       <c r="C56">
-        <v>44.97813462841904</v>
+        <v>42.79503774997065</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>42.2623325439178</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>41.8442551684946</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>40.56852217057452</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>40.93153841408554</v>
+        <v>42.1252868649716</v>
       </c>
       <c r="C57">
-        <v>45.48646949192241</v>
+        <v>43.28966823249203</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>43.00461087109361</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>42.5859903459404</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>41.34483496711626</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>41.68226461118234</v>
+        <v>42.7250528274918</v>
       </c>
       <c r="C58">
-        <v>45.97381469248011</v>
+        <v>43.782881289898</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>43.75971958971732</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>43.35259144249593</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>42.15472878195656</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>42.45120905774117</v>
+        <v>43.33519253578611</v>
       </c>
       <c r="C59">
-        <v>46.4296621549676</v>
+        <v>44.26457512030245</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>44.50562861491623</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>44.12409030695368</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>42.97991947050812</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>43.22217374133581</v>
+        <v>43.94478267828889</v>
       </c>
       <c r="C60">
-        <v>46.84584088616634</v>
+        <v>44.72578765871753</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>45.22097881837206</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>44.87979128169845</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>43.80060778814968</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>43.97904964230689</v>
+        <v>44.54306486101621</v>
       </c>
       <c r="C61">
-        <v>47.21661043101034</v>
+        <v>45.15898205742557</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>45.88684921762154</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>45.59946658922846</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>44.59631613943675</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>44.70644639861964</v>
+        <v>45.11974778789508</v>
       </c>
       <c r="C62">
-        <v>47.53859884036771</v>
+        <v>45.55823531651061</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>46.48831226190485</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>46.26483225001138</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>45.34711920404924</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>45.3903790711157</v>
+        <v>45.66534053287997</v>
       </c>
       <c r="C63">
-        <v>47.8106005932751</v>
+        <v>45.91931374287479</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>47.01543224193253</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>46.86102412707243</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>46.03516206338868</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>46.01894196738108</v>
+        <v>46.17149828598623</v>
       </c>
       <c r="C64">
-        <v>48.03326573495414</v>
+        <v>46.23963500293202</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>47.46350093216669</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>47.37778190224778</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>46.6462156510984</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>46.58288434197474</v>
+        <v>46.63135128186907</v>
       </c>
       <c r="C65">
-        <v>48.20872162457475</v>
+        <v>46.5181317238756</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>47.83254379758417</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>47.81003316252886</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>47.17091644313244</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>47.0760028770186</v>
+        <v>47.03978032524292</v>
       </c>
       <c r="C66">
-        <v>48.34017139150389</v>
+        <v>46.7550422661395</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>48.12632039635343</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>48.15774247366399</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>47.60535729730648</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>47.49528682339069</v>
+        <v>47.39359964792796</v>
       </c>
       <c r="C67">
-        <v>48.43150823121571</v>
+        <v>46.95166044500786</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>48.35111922326145</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>48.42510071890195</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>47.95086362432199</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>47.84078915378166</v>
+        <v>47.69161251190783</v>
       </c>
       <c r="C68">
-        <v>48.48697492349557</v>
+        <v>47.11007149792728</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>48.5146048130058</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>48.61930821696151</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>48.21304730338344</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>48.11524640416079</v>
+        <v>47.93451954833077</v>
       </c>
       <c r="C69">
-        <v>48.5108862555109</v>
+        <v>47.23290014825585</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>48.62488321202197</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>48.74926379567689</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>48.40043307673961</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>48.32351147635035</v>
+        <v>48.12468306640154</v>
       </c>
       <c r="C70">
-        <v>48.50742061343256</v>
+        <v>47.32308962315152</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>48.68984042344267</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>48.82441512449804</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>48.52302249760903</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>48.47189137965604</v>
+        <v>48.26577675130128</v>
       </c>
       <c r="C71">
-        <v>48.48047795495438</v>
+        <v>47.38371774410204</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>48.71673647113969</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>48.85390726775393</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>48.59107953707918</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>48.56748535628132</v>
+        <v>48.36237108959764</v>
       </c>
       <c r="C72">
-        <v>48.43359545841581</v>
+        <v>47.41785435563294</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>48.712003392931</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>48.84605395352287</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>48.614276297602</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>48.61760147109094</v>
+        <v>48.41951360062579</v>
       </c>
       <c r="C73">
-        <v>48.36990919974273</v>
+        <v>47.42845829051381</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>48.68118571281769</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>48.80808228605966</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>48.60120550625309</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>48.62930056161681</v>
+        <v>48.44235612589843</v>
       </c>
       <c r="C74">
-        <v>48.29214969461733</v>
+        <v>47.4183083924062</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>48.62896958967471</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>48.74607357040353</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>48.55918581011672</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>48.60908397164893</v>
+        <v>48.43586290816927</v>
       </c>
       <c r="C75">
-        <v>48.2026602503681</v>
+        <v>47.38996251478908</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>48.55926002910049</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>48.66502508491074</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>48.49426485604038</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>48.56271655655409</v>
+        <v>48.40461229256292</v>
       </c>
       <c r="C76">
-        <v>48.10342910535769</v>
+        <v>47.34573819688966</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>48.47527864438122</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>48.56897291145933</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>48.41133294716079</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>48.49515949144743</v>
+        <v>48.35268582575578</v>
       </c>
       <c r="C77">
-        <v>47.99612816058263</v>
+        <v>47.2877092101681</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>48.37966493588795</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>48.46113701452877</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>48.31428512949221</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>48.41058227731804</v>
+        <v>48.28362796757258</v>
       </c>
       <c r="C78">
-        <v>47.88215350872334</v>
+        <v>47.21771285349088</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>48.27457163303173</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>48.34406521155533</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>48.20619180756781</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>48.31242444143697</v>
+        <v>48.20045556517446</v>
       </c>
       <c r="C79">
-        <v>47.76266545530175</v>
+        <v>47.13736420448558</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>48.16174964009493</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>48.21976170217721</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>48.08945811090835</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>48.20348265719477</v>
+        <v>48.10569786902027</v>
       </c>
       <c r="C80">
-        <v>47.6386248467965</v>
+        <v>47.04807427087898</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>48.04262107436158</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>48.08979764598647</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>47.96596106515143</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>48.08600589557817</v>
+        <v>48.00145205693882</v>
       </c>
       <c r="C81">
-        <v>47.51082538921746</v>
+        <v>46.95106961193213</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>47.91834063823873</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>47.95540267880438</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>47.83716290720562</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>47.9617886736911</v>
+        <v>47.88944326987018</v>
       </c>
       <c r="C82">
-        <v>47.37992176935293</v>
+        <v>46.84741261120468</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>47.78984636591248</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>47.81753862272104</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>47.70420289696525</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>47.8322550490138</v>
+        <v>47.77108332088308</v>
       </c>
       <c r="C83">
-        <v>47.2464537710398</v>
+        <v>46.73802116083986</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>47.65790104289091</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>47.67695822318887</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>47.56796966098844</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>47.69853061083537</v>
+        <v>47.64752419677709</v>
       </c>
       <c r="C84">
-        <v>47.11086665359425</v>
+        <v>46.62368669012803</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>47.52312598322823</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>47.53425135612827</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>47.42915797750231</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>47.56150354757114</v>
+        <v>47.51970425576567</v>
       </c>
       <c r="C85">
-        <v>46.9735279819782</v>
+        <v>46.50509066476685</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>47.38602860716222</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>47.38988110598175</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>47.288312409253</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>47.42187233281039</v>
+        <v>47.38837967116574</v>
       </c>
       <c r="C86">
-        <v>46.83473892106137</v>
+        <v>46.3828023307259</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>47.24702187012794</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>47.24421102777254</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>47.145860157893</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>47.28018650465369</v>
+        <v>47.25416759910189</v>
       </c>
       <c r="C87">
-        <v>46.69474943156555</v>
+        <v>46.25731347256121</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>47.1064429945292</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>47.09752754415333</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>47.00213813466426</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>47.1368850113568</v>
+        <v>47.11758300217086</v>
       </c>
       <c r="C88">
-        <v>46.5537688590951</v>
+        <v>46.12906926075938</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>46.96457444917083</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>46.95005856707046</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>46.85741531684331</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>46.99231384170351</v>
+        <v>46.97904485214615</v>
       </c>
       <c r="C89">
-        <v>46.41197179798659</v>
+        <v>45.99844992710174</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>46.82164741224197</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>46.80198550887853</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>46.71190558947922</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>46.84674787119138</v>
+        <v>46.83889546808103</v>
       </c>
       <c r="C90">
-        <v>46.26950500012391</v>
+        <v>45.86578148607764</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>46.67785364889534</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>46.65345304905036</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>46.56577921201714</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>46.70040397618063</v>
+        <v>46.69741606771313</v>
       </c>
       <c r="C91">
-        <v>46.1264886981302</v>
+        <v>45.7313442677368</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>46.53335146680745</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>46.50457516805557</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>46.4191729437056</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>46.5534556180133</v>
+        <v>46.55483851099872</v>
       </c>
       <c r="C92">
-        <v>45.98302338572936</v>
+        <v>45.59537952285567</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>46.38827179798605</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>46.35544305101121</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>46.27219725056852</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>46.40604191760613</v>
+        <v>46.41135461292093</v>
       </c>
       <c r="C93">
-        <v>45.83919393556438</v>
+        <v>45.45809506342996</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>46.24272409422231</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>46.20613030905886</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>46.12494065479829</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>46.2582742194946</v>
+        <v>46.26712246320898</v>
       </c>
       <c r="C94">
-        <v>45.69507196630651</v>
+        <v>45.31967088608273</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>46.0968000210699</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>46.05669648795908</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>45.97747506939199</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>46.11024142882241</v>
+        <v>46.12227385698357</v>
       </c>
       <c r="C95">
-        <v>45.55071774399521</v>
+        <v>45.18026282170603</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>45.95057640144288</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>45.90718970331099</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>45.8298594354733</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>45.96201560163141</v>
+        <v>45.97691912368366</v>
       </c>
       <c r="C96">
-        <v>45.40618249693119</v>
+        <v>45.04000503681434</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>45.80411744986952</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>45.75764880841715</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>45.68214209463137</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>45.81365580343613</v>
+        <v>45.83115092272095</v>
       </c>
       <c r="C97">
-        <v>45.26150955692618</v>
+        <v>44.89901404262085</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>45.65747698252806</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>45.60810516840222</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>45.53436273709844</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>45.66521017101377</v>
+        <v>45.68504719910741</v>
       </c>
       <c r="C98">
-        <v>45.11673563483956</v>
+        <v>44.75739136544319</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>45.51070048618735</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>45.4585843097631</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>45.3865538073761</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>45.51671769552706</v>
+        <v>45.53867278777382</v>
       </c>
       <c r="C99">
-        <v>44.97189205726563</v>
+        <v>44.61522556443113</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>45.36382676197196</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>45.30910750118886</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>45.23874207220178</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>45.36821016256994</v>
+        <v>45.39208262275936</v>
       </c>
       <c r="C100">
-        <v>44.82700507448126</v>
+        <v>44.4725941254667</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>45.21688908715337</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>45.15969224289179</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>45.09094983131043</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>45.21971379822477</v>
+        <v>45.24532376742309</v>
       </c>
       <c r="C101">
-        <v>44.68209793523792</v>
+        <v>44.32956467724025</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>45.06991563870603</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>45.01035283012213</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>44.94319584301169</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>45.07125020077498</v>
+        <v>45.09843656449866</v>
       </c>
       <c r="C102">
-        <v>44.53719062742695</v>
+        <v>44.18619586394974</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>44.92293023655905</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>44.86110096047829</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>44.79549603647531</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>44.9228374570151</v>
+        <v>44.95145556102322</v>
       </c>
       <c r="C103">
-        <v>44.39230037773878</v>
+        <v>44.04253940538874</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>44.77595320289442</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>44.71194626541305</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>44.64786365589652</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>44.77449065533175</v>
+        <v>44.80441026008703</v>
       </c>
       <c r="C104">
-        <v>44.24744218046724</v>
+        <v>43.89864063325028</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>44.6290019704509</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>44.56289666772301</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>44.50030970925837</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>44.62622218227094</v>
+        <v>44.65732582798199</v>
       </c>
       <c r="C105">
-        <v>44.10262873322695</v>
+        <v>43.7545396254547</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>44.48209153099346</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>44.41395890172232</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>44.35284346729379</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>44.47804243492122</v>
+        <v>44.51022388447873</v>
       </c>
       <c r="C106">
-        <v>43.95787109714845</v>
+        <v>43.61027216602954</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>44.33523489377561</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>44.26513839309163</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>44.20547276626221</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>44.32996008080986</v>
+        <v>44.3631231606777</v>
       </c>
       <c r="C107">
-        <v>43.81317886848528</v>
+        <v>43.46586967843703</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>44.18844316844963</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>44.11644001126038</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>44.05820433154501</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>44.18198236573355</v>
+        <v>44.21603989897196</v>
       </c>
       <c r="C108">
-        <v>43.66856042769626</v>
+        <v>43.32136004343965</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>44.04172624452876</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>43.96786754455123</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>43.91104381638569</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>44.03411540562981</v>
+        <v>44.06898831037523</v>
       </c>
       <c r="C109">
-        <v>43.52402306363664</v>
+        <v>43.17676776842444</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>43.89509233616096</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>43.81942438142617</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>43.76399623686908</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>43.88636443710227</v>
+        <v>43.92198088208738</v>
       </c>
       <c r="C110">
-        <v>43.37957341307953</v>
+        <v>43.03211461634244</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>43.74854885664416</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>43.67111320092347</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>43.61706572901132</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>43.73873387338547</v>
+        <v>43.7750283729445</v>
       </c>
       <c r="C111">
-        <v>43.23521684801642</v>
+        <v>42.88741996571115</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>43.60210199071817</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>43.52293625868224</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>43.47025596513803</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>43.59122744734264</v>
+        <v>43.62814054582203</v>
       </c>
       <c r="C112">
-        <v>43.09095890083503</v>
+        <v>42.74270103165662</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>43.45575723190938</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>43.37489543542984</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>43.32357000613779</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>43.4438483508149</v>
+        <v>43.48132550805142</v>
       </c>
       <c r="C113">
-        <v>42.94680351355776</v>
+        <v>42.59797329817279</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>43.30951932406139</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>43.22699228561806</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>43.17701048507541</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>43.29659927579341</v>
+        <v>43.33459071486835</v>
       </c>
       <c r="C114">
-        <v>42.80275509556211</v>
+        <v>42.45325064322109</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>43.163392413582</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>43.07922814005818</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>43.03057967217391</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>43.14948252191676</v>
+        <v>43.18794246030532</v>
       </c>
       <c r="C115">
-        <v>42.65881675609441</v>
+        <v>42.30854534490785</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>43.01738018599977</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>42.93160409996114</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>42.88427949940289</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>43.00250005512093</v>
+        <v>43.04138639052624</v>
       </c>
       <c r="C116">
-        <v>42.51499171837212</v>
+        <v>42.16386893017674</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>42.87148580165864</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>42.78412114525283</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>42.73811166753069</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>42.8556535713011</v>
+        <v>42.89492748882322</v>
       </c>
       <c r="C117">
-        <v>42.37128259658081</v>
+        <v>42.01923104286642</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>42.72571211871051</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>42.63678005079753</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>42.59207762373166</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>42.70894451627118</v>
+        <v>42.74857019936805</v>
       </c>
       <c r="C118">
-        <v>42.22769172354869</v>
+        <v>41.87464115255409</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>42.58006156632027</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>42.48958150989301</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>42.44617867227345</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>42.56237412919132</v>
+        <v>42.60231849414082</v>
       </c>
       <c r="C119">
-        <v>42.08422118977619</v>
+        <v>41.73010702423764</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>42.43453632425209</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>42.34252606058386</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>42.30041590010065</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>42.41594347761403</v>
+        <v>42.45617590573873</v>
       </c>
       <c r="C120">
-        <v>41.94087286367425</v>
+        <v>41.58563618032287</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>42.28913827531527</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>42.19561416285521</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>42.15479029349684</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>42.26965346922734</v>
+        <v>42.31014561229596</v>
       </c>
       <c r="C121">
-        <v>41.79764841642123</v>
+        <v>41.44123506137662</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>42.14386908375398</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>42.0488461825782</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>42.00930266970845</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>42.12350488331478</v>
+        <v>42.1642303963685</v>
       </c>
       <c r="C122">
-        <v>41.65454933680851</v>
+        <v>41.29690964519143</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>41.99873021864379</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>41.90222242096369</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>41.86395375517603</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>41.97749838292988</v>
+        <v>42.01843278641736</v>
       </c>
       <c r="C123">
-        <v>41.51157701975357</v>
+        <v>41.15266527108196</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>41.85372296313591</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>41.75574312292196</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>41.71874416493657</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>41.83163454109201</v>
+        <v>41.87275500434486</v>
       </c>
       <c r="C124">
-        <v>41.36873261908763</v>
+        <v>41.00850685446301</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>41.70884846611517</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>41.60940848124345</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>41.57367443334083</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>41.68591384609674</v>
+        <v>41.72719905313965</v>
       </c>
       <c r="C125">
-        <v>41.22601727397316</v>
+        <v>40.86443879588285</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>41.56410772254808</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>41.46321865718557</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>41.4287450241991</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>41.54033670900272</v>
+        <v>41.58176672726972</v>
       </c>
       <c r="C126">
-        <v>41.08343190304584</v>
+        <v>40.72046519071123</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>41.41950162259423</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>41.31717376379079</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>41.28395633202616</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>41.39490350512882</v>
+        <v>41.43645964555179</v>
       </c>
       <c r="C127">
-        <v>40.94097738717588</v>
+        <v>40.57658972004977</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>41.27503093866808</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>41.17127389303203</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>41.13930870645436</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>41.24961451266723</v>
+        <v>41.29127926342427</v>
       </c>
       <c r="C128">
-        <v>40.79865447979758</v>
+        <v>40.4328157439037</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>41.13069635257105</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>41.02551909885756</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>40.9948024358597</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>41.10447001340899</v>
+        <v>41.14622689493423</v>
       </c>
       <c r="C129">
-        <v>40.65646386035372</v>
+        <v>40.28914635901786</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>40.98649846274516</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>40.87990941584469</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>40.85043777630083</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>40.95947019506667</v>
+        <v>41.00130372410246</v>
       </c>
       <c r="C130">
-        <v>40.51440613640575</v>
+        <v>40.14558432692984</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>40.8424377904015</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>40.73444485422339</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>40.70621493434307</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>40.81461524740344</v>
+        <v>40.85651081045386</v>
       </c>
       <c r="C131">
-        <v>40.37248185490795</v>
+        <v>40.00213222259895</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>40.69851479578347</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>40.58912540716974</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>40.56213408840262</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>40.66990530005184</v>
+        <v>40.71184911632929</v>
       </c>
       <c r="C132">
-        <v>40.23069150313925</v>
+        <v>39.85879235668366</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>40.55472987671859</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>40.44395105284015</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>40.41819538172221</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>40.52534046797313</v>
+        <v>40.56731950084181</v>
       </c>
       <c r="C133">
-        <v>40.08903551991779</v>
+        <v>39.71556686714092</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>40.41108338293476</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>40.29892175490975</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>40.27439893234491</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>40.38092083501441</v>
+        <v>40.42292274342098</v>
       </c>
       <c r="C134">
-        <v>39.94751430378782</v>
+        <v>39.57245769860533</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>40.26757561516809</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>40.1540374678481</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>40.13074483406434</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>40.23664646620137</v>
+        <v>40.27865954445478</v>
       </c>
       <c r="C135">
-        <v>39.80612819649933</v>
+        <v>39.4294666531176</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>40.12420683325409</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>40.00929813315283</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>39.98723315882672</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>40.09251740659482</v>
+        <v>40.13453053938176</v>
       </c>
       <c r="C136">
-        <v>39.6648775187779</v>
+        <v>39.28659536127044</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>39.980977260355</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>39.86470368579642</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>39.84386396143248</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>39.94853368550164</v>
+        <v>39.99053629950264</v>
       </c>
       <c r="C137">
-        <v>39.52376253786502</v>
+        <v>39.14384535603314</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>39.83788708431808</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>39.72025405044918</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>39.70063727733132</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>39.80469531950872</v>
+        <v>39.84667734248836</v>
       </c>
       <c r="C138">
-        <v>39.38278350109921</v>
+        <v>39.00121800781776</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>39.69493646503063</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>39.57594914600956</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>39.55755312943294</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>39.66100230714793</v>
+        <v>39.70295413380569</v>
       </c>
       <c r="C139">
-        <v>39.24194061936205</v>
+        <v>38.85871461164993</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>39.55212553368335</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>39.43178888439807</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>39.41461152434104</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>39.51745464160697</v>
+        <v>39.55936708757254</v>
       </c>
       <c r="C140">
-        <v>39.10123408013191</v>
+        <v>38.71633633369147</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>39.40945439863755</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>39.28777317242979</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>39.27181245811935</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>39.3740522981758</v>
+        <v>39.41591658224387</v>
       </c>
       <c r="C141">
-        <v>38.96066404607777</v>
+        <v>38.57408425693464</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>39.26692314578224</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>39.14390191235591</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>39.12915591441386</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>39.23079524813782</v>
+        <v>39.27260296155637</v>
       </c>
       <c r="C142">
-        <v>38.82023066010512</v>
+        <v>38.4319593748549</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>39.12453184156978</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>39.0001750020153</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>38.98664186770196</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>39.087683450273</v>
+        <v>39.12942651515014</v>
       </c>
       <c r="C143">
-        <v>38.67993404399426</v>
+        <v>38.28996260040212</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>38.98228053515092</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>38.85659233625484</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>38.84427028312376</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>38.94471685781627</v>
+        <v>38.98638752891824</v>
       </c>
       <c r="C144">
-        <v>38.53977430355808</v>
+        <v>38.1480947771287</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>38.84016925877869</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>38.71315380606994</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>38.70204111802258</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>38.80189541622733</v>
+        <v>38.84348624844051</v>
       </c>
       <c r="C145">
-        <v>38.39975152808876</v>
+        <v>38.00635668002097</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>38.6981980309381</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>38.56985930024517</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>38.55995432251157</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>38.65921906575324</v>
+        <v>38.70072287832915</v>
       </c>
       <c r="C146">
-        <v>38.25986579030133</v>
+        <v>37.86474902744165</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>38.55636685541896</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>38.42670870451163</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>38.4180098399823</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>38.51668774080401</v>
+        <v>38.5580976277104</v>
       </c>
       <c r="C147">
-        <v>38.12011715170169</v>
+        <v>37.72327247670991</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>38.4146757268022</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>38.28370190272279</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>38.27620760823547</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>38.37430137154303</v>
+        <v>38.41561066111153</v>
       </c>
       <c r="C148">
-        <v>37.98050565794259</v>
+        <v>37.58192764123343</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>38.27312462605232</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>38.14083877656074</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>38.13454755920809</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>38.23205988394511</v>
+        <v>38.27326212643693</v>
       </c>
       <c r="C149">
-        <v>37.84103134550658</v>
+        <v>37.44071507814593</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>38.13171352568298</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>37.99811920598692</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>37.99302962036495</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>38.08996319949522</v>
+        <v>38.13105216285602</v>
       </c>
       <c r="C150">
-        <v>37.70169423838919</v>
+        <v>37.29963530951716</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>37.99044239304172</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>37.85554306950754</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>37.85165371400191</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>37.9480112372583</v>
+        <v>37.98898087641164</v>
       </c>
       <c r="C151">
-        <v>37.56249435193352</v>
+        <v>37.15868880861077</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>37.84931117889533</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>37.71311024462946</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>37.71041975934173</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>37.80620391189531</v>
+        <v>37.84704836862009</v>
       </c>
       <c r="C152">
-        <v>37.42343169170815</v>
+        <v>37.01787601769281</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>37.70831983554985</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>37.57082060675921</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>37.56932767156268</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>37.66454113630896</v>
+        <v>37.70525472316751</v>
       </c>
       <c r="C153">
-        <v>37.28450625600409</v>
+        <v>36.87719733909096</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>37.56746830541046</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>37.4286740314929</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>37.42837736173303</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>37.52302282005336</v>
+        <v>37.5636000076191</v>
       </c>
       <c r="C154">
-        <v>37.14571803453765</v>
+        <v>36.7366531469134</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>37.42675652127478</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>37.28667039329873</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>37.28756874009683</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>37.38164887093725</v>
+        <v>37.42208428131669</v>
       </c>
       <c r="C155">
-        <v>37.00706701110315</v>
+        <v>36.5962437801724</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>37.28618441556129</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>37.14480956477394</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>37.14690171222329</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>37.24041919440123</v>
+        <v>37.28070759026827</v>
       </c>
       <c r="C156">
-        <v>36.86855316236316</v>
+        <v>36.45596955460725</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>37.14575191193261</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>37.00309141939257</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>37.00637618146668</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>37.09933369439202</v>
+        <v>37.13946996936639</v>
       </c>
       <c r="C157">
-        <v>36.73017645918119</v>
+        <v>36.31583076380028</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>37.00545893030816</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>36.86151582921732</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>36.86599205071583</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>36.95839227300255</v>
+        <v>36.99837144766482</v>
       </c>
       <c r="C158">
-        <v>36.59193686664864</v>
+        <v>36.17582766887471</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>36.86530538697176</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>36.72008266544301</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>36.72574921797712</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>36.81759483109909</v>
+        <v>36.85741204040892</v>
       </c>
       <c r="C159">
-        <v>36.45383434427857</v>
+        <v>36.03596051090224</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>36.72529119301309</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>36.57879179963908</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>36.58564758128148</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>36.67694126818664</v>
+        <v>36.71659175741845</v>
       </c>
       <c r="C160">
-        <v>36.31586884840992</v>
+        <v>35.89622952315614</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>36.58541625720622</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>36.4376431022878</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>36.44568703683495</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>36.53643148255259</v>
+        <v>36.57591060221129</v>
       </c>
       <c r="C161">
-        <v>36.1780403303656</v>
+        <v>35.75663491098265</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>36.44568048454978</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>36.29663644377654</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>36.30586747798688</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>36.39606537162746</v>
+        <v>36.43536856606247</v>
       </c>
       <c r="C162">
-        <v>36.04034873489225</v>
+        <v>35.61717684858372</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>36.30608377679844</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>36.15577169429451</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>36.16618879784338</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>36.25584283168233</v>
+        <v>36.29496563827974</v>
       </c>
       <c r="C163">
-        <v>35.90279400752334</v>
+        <v>35.47785551891447</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>36.16662603409871</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>36.01504872357926</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>36.02665088782172</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>36.11576375840338</v>
+        <v>36.15470180040056</v>
       </c>
       <c r="C164">
-        <v>35.76537608984283</v>
+        <v>35.33867108202102</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>36.02730715262003</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>35.87446740137752</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>35.88725363790763</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>35.97582804656247</v>
+        <v>36.01457702672726</v>
       </c>
       <c r="C165">
-        <v>35.62809491423418</v>
+        <v>35.19962366348658</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>35.88812702731196</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>35.73402759723144</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>35.74799693745236</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>35.83603559045662</v>
+        <v>35.87459128815131</v>
       </c>
       <c r="C166">
-        <v>35.49095041720291</v>
+        <v>35.06071339948004</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>35.74908555104157</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>35.59372918047589</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>35.60888067458835</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>35.6963862837139</v>
+        <v>35.73474454957638</v>
       </c>
       <c r="C167">
-        <v>35.35394253107617</v>
+        <v>34.92194040750129</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>35.61018261361501</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>35.45357202056109</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>35.46990473655404</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>35.55688001960765</v>
+        <v>35.59503677129254</v>
       </c>
       <c r="C168">
-        <v>35.21707118228922</v>
+        <v>34.78330478289487</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>35.47141810422201</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>35.31355598673042</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>35.33106901015718</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>35.41751669090301</v>
+        <v>35.45546791006286</v>
       </c>
       <c r="C169">
-        <v>35.08033629688845</v>
+        <v>34.64480661963967</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>35.33279190981895</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>35.17368094818443</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>35.19237338097972</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>35.27829619011585</v>
+        <v>35.31603791747737</v>
       </c>
       <c r="C170">
-        <v>34.94373779975555</v>
+        <v>34.50644600002407</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>35.19430391572224</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>35.03394677427821</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>35.0538177342688</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>35.13921840942105</v>
+        <v>35.17674674246427</v>
       </c>
       <c r="C171">
-        <v>34.80727561235005</v>
+        <v>34.36822299399075</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>35.05595400624276</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>34.89435333413859</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>34.91540195482564</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>35.00028324076867</v>
+        <v>35.03759433051754</v>
       </c>
       <c r="C172">
-        <v>34.67094965358407</v>
+        <v>34.23013766342788</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>34.9177420639711</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>34.75490049706814</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>34.77712592637489</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>34.86149057594323</v>
+        <v>34.89858062265148</v>
       </c>
       <c r="C173">
-        <v>34.53475984205367</v>
+        <v>34.09219006386297</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>34.77966797066375</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>34.61558813240114</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>34.6389895326687</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>34.72284030653682</v>
+        <v>34.75970555835169</v>
       </c>
       <c r="C174">
-        <v>34.39870609415298</v>
+        <v>33.95438024130009</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>34.64173160691958</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>34.47641610942748</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>34.50099265687837</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>34.58433232409099</v>
+        <v>34.6209690736679</v>
       </c>
       <c r="C175">
-        <v>34.26278832418824</v>
+        <v>33.81670823303182</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>34.50393285213234</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>34.33738429759944</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>34.36313518159983</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>34.44596652002755</v>
+        <v>34.48237110148737</v>
       </c>
       <c r="C176">
-        <v>34.12700644589078</v>
+        <v>33.67917407331475</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>34.36627158514036</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>34.19849256641971</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>34.22541698932301</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>34.30774278578063</v>
+        <v>34.34391157314646</v>
       </c>
       <c r="C177">
-        <v>33.99136037159715</v>
+        <v>33.54177778876635</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>34.22874768367286</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>34.05974078547124</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>34.08783796213753</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>34.169661012709</v>
+        <v>34.20559041702882</v>
       </c>
       <c r="C178">
-        <v>33.85585001163906</v>
+        <v>33.40451939560469</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>34.0913610247245</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>33.92112882447805</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>33.95039798183578</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>34.03172109229843</v>
+        <v>34.06740755949578</v>
       </c>
       <c r="C179">
-        <v>33.72047527620582</v>
+        <v>33.26739891028691</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>33.95411148477913</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>33.78265655325362</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>33.81309693008929</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>33.89392291612064</v>
+        <v>33.92936292518717</v>
       </c>
       <c r="C180">
-        <v>33.58523607439421</v>
+        <v>33.13041634280752</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>33.81699893929829</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>33.64432384174866</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>33.67593468827766</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>33.75626637562059</v>
+        <v>33.79145643636246</v>
       </c>
       <c r="C181">
-        <v>33.45013231371685</v>
+        <v>32.99357169330162</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>33.68002326346113</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>33.50613056007589</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>33.53891113766024</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>33.61875136259261</v>
+        <v>33.65368801400863</v>
       </c>
       <c r="C182">
-        <v>33.31516390105018</v>
+        <v>32.85686496230509</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>33.5431843317821</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>33.3680765784303</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>33.40202615942914</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>33.48137776898965</v>
+        <v>33.51605757737691</v>
       </c>
       <c r="C183">
-        <v>33.18033074294627</v>
+        <v>32.72029614471622</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>33.4064820181649</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>33.23016176721585</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>33.26527963450206</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>33.34414548673889</v>
+        <v>33.3785650439183</v>
       </c>
       <c r="C184">
-        <v>33.04563274480488</v>
+        <v>32.5838652296353</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>33.26991619620927</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>33.09238599697964</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>33.12867144387008</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>33.20705440796404</v>
+        <v>33.24121033009737</v>
       </c>
       <c r="C185">
-        <v>32.91106981092919</v>
+        <v>32.44757220301254</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>33.13348673897058</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>32.95474913839605</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>32.99220146842909</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>33.07010442518863</v>
+        <v>33.10399335083097</v>
       </c>
       <c r="C186">
-        <v>32.77664184571</v>
+        <v>32.31141704782364</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>32.99719351916038</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>32.81725106234999</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>32.85586958893024</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>32.93329543103241</v>
+        <v>32.9669140197097</v>
       </c>
       <c r="C187">
-        <v>32.64234875271526</v>
+        <v>32.17539974283102</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>32.86103640917779</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>32.67989163988213</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>32.71967568622359</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>32.79662731817605</v>
+        <v>32.82997224948836</v>
       </c>
       <c r="C188">
-        <v>32.50819043456887</v>
+        <v>32.03952026325703</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>32.72501528098688</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>32.54267074220441</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>32.58361964110842</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>32.66009997980801</v>
+        <v>32.69316795152474</v>
       </c>
       <c r="C189">
-        <v>32.37416679389325</v>
+        <v>31.90377858225575</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>32.58913000638333</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>32.40558824072875</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>32.44770133436205</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>32.52371330930518</v>
+        <v>32.55650103634716</v>
       </c>
       <c r="C190">
-        <v>32.24027773275124</v>
+        <v>31.76817466974441</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>32.45338045684171</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>32.26864400704442</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>32.31192064685367</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>32.38746720018876</v>
+        <v>32.41997141362846</v>
       </c>
       <c r="C191">
-        <v>32.10652315260729</v>
+        <v>31.6327084920602</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>32.31776650355583</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>32.1318379129386</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>32.17627745946032</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>32.2513615464208</v>
+        <v>32.28357899193442</v>
       </c>
       <c r="C192">
-        <v>31.9729029547586</v>
+        <v>31.49738001443172</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>32.18228801759326</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>31.99516983040034</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>32.04077165312398</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>32.11539624223122</v>
+        <v>32.14732367927806</v>
       </c>
       <c r="C193">
-        <v>31.83941704020228</v>
+        <v>31.36218919950615</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>32.04694486972917</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>31.85863963160902</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>31.90540310889087</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>31.97957118213659</v>
+        <v>32.01120538285621</v>
       </c>
       <c r="C194">
-        <v>31.70606530952718</v>
+        <v>31.22713600622764</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>31.91173693061767</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>31.7222471889622</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>31.77017170785327</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>31.84388626101198</v>
+        <v>31.87522400908731</v>
       </c>
       <c r="C195">
-        <v>31.57284766307771</v>
+        <v>31.09222039319633</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>31.77666407076104</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>31.58599237506303</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>31.63507733123999</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>31.70834137409291</v>
+        <v>31.73937946392219</v>
       </c>
       <c r="C196">
-        <v>31.43976400113663</v>
+        <v>30.9574423167271</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>31.64172616046423</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>31.44987506271906</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>31.50011986039708</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>31.57293641695169</v>
+        <v>31.60367165262658</v>
       </c>
       <c r="C197">
-        <v>31.30681422370844</v>
+        <v>30.82280173043446</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>31.5069230699719</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>31.31389512496569</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>31.36529917675495</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>31.43767128551945</v>
+        <v>31.46810047993489</v>
       </c>
       <c r="C198">
-        <v>31.17399823047164</v>
+        <v>30.68829858682798</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>31.37225466938887</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>31.17805243505051</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>31.23061516192648</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>31.3025458761497</v>
+        <v>31.3326658501923</v>
       </c>
       <c r="C199">
-        <v>31.04131592123856</v>
+        <v>30.55393283705461</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>31.23772082871931</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>31.04234686644155</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>31.09606769765597</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>31.16756008557276</v>
+        <v>31.19736766714654</v>
       </c>
       <c r="C200">
-        <v>30.90876719564955</v>
+        <v>30.41970443033502</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>31.10332141792151</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>30.90677829283796</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>30.96165666582269</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>31.03271381087005</v>
+        <v>31.0622058342574</v>
       </c>
       <c r="C201">
-        <v>30.77635195303586</v>
+        <v>30.28561331439671</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>30.96905630683904</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>30.7713465881609</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>30.82738194850364</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>30.89800694960368</v>
+        <v>30.92718025460948</v>
       </c>
       <c r="C202">
-        <v>30.64407009292482</v>
+        <v>30.15165943614423</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>30.83492536529969</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>30.63605162656554</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>30.69324342793335</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>30.7634393997432</v>
+        <v>30.79229083085088</v>
       </c>
       <c r="C203">
-        <v>30.51192151474519</v>
+        <v>30.01784274105283</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>30.70092846306895</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>30.50089328244128</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>30.5592409865263</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>30.62901105963935</v>
+        <v>30.65753746545041</v>
       </c>
       <c r="C204">
-        <v>30.37990611780653</v>
+        <v>29.88416317318365</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>30.56706546983158</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>30.36587143041134</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>30.42537450690511</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>30.49472182813324</v>
+        <v>30.52292006056145</v>
       </c>
       <c r="C205">
-        <v>30.24802380149061</v>
+        <v>29.75062067605014</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>30.43333625532439</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>30.23098594534119</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>30.29164387187634</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>30.36057160450722</v>
+        <v>30.3884385180651</v>
       </c>
       <c r="C206">
-        <v>30.11627446523035</v>
+        <v>29.61721519210693</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>30.29974068926887</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>30.09623670233736</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>30.15804896446329</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>30.22656028848927</v>
+        <v>30.25409273971076</v>
       </c>
       <c r="C207">
-        <v>29.98465800845333</v>
+        <v>29.48394666249219</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>30.16627864134845</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>29.96162357674995</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>30.02458966791001</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>30.0926877802782</v>
+        <v>30.11988262701053</v>
       </c>
       <c r="C208">
-        <v>29.85317433062959</v>
+        <v>29.35081502807973</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>30.03294998112405</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>29.8271464441786</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>29.89126586566801</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>29.95895398056034</v>
+        <v>29.98580808134381</v>
       </c>
       <c r="C209">
-        <v>29.72182333137197</v>
+        <v>29.21782022891536</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>29.89975457839042</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>29.69280518047007</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>29.75807744143559</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>29.82535879050391</v>
+        <v>29.85186900399792</v>
       </c>
       <c r="C210">
-        <v>29.59060491036248</v>
+        <v>29.08496220399996</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>29.76669230291022</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>29.55859966172446</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>29.62502427914427</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>29.69190211177018</v>
+        <v>29.7180652960902</v>
       </c>
       <c r="C211">
-        <v>29.45951896733479</v>
+        <v>28.95224089204277</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>29.63376302442304</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>29.42452976429944</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>29.49210626296043</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>29.55858384653244</v>
+        <v>29.58439685872925</v>
       </c>
       <c r="C212">
-        <v>29.32856540223644</v>
+        <v>28.81965623124659</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>29.50096661250804</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>29.29059536481072</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>29.35932327731426</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>29.42540389747728</v>
+        <v>29.45086359294126</v>
       </c>
       <c r="C213">
-        <v>29.19774411514294</v>
+        <v>28.68720815910715</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>29.36830293709165</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>29.1567963401304</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>29.22667520688717</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>29.29236216780956</v>
+        <v>29.31746539965349</v>
       </c>
       <c r="C214">
-        <v>29.06705500620042</v>
+        <v>28.55489661267804</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>29.23577186804854</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>29.02313256739275</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>29.09416193662078</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>29.1594585612742</v>
+        <v>29.18420217989218</v>
       </c>
       <c r="C215">
-        <v>28.93649797582128</v>
+        <v>28.42272152882655</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>29.10337327526281</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>28.88960392400468</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>28.96178335173446</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>29.02669298215688</v>
+        <v>29.0510738346901</v>
       </c>
       <c r="C216">
-        <v>28.80607292458307</v>
+        <v>28.29068284395798</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>28.97110702851089</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>28.75621028763948</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>28.82953933771246</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>28.89406533528901</v>
+        <v>28.9180802650967</v>
       </c>
       <c r="C217">
-        <v>28.675779753221</v>
+        <v>28.1587804940533</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>28.83897299786313</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>28.62295153623873</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>28.69742978032624</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>28.7615755260657</v>
+        <v>28.78522137198353</v>
       </c>
       <c r="C218">
-        <v>28.54561836269725</v>
+        <v>28.02701441507939</v>
       </c>
       <c r="D218">
-        <v>0</v>
+        <v>28.70697105336891</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>28.48982754801301</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>28.56545456564137</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>28.62922346045168</v>
+        <v>28.652497056635</v>
       </c>
       <c r="C219">
-        <v>28.41558865422125</v>
+        <v>27.89538454273907</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>28.57510106512372</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>28.3568382014581</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>28.43361358001905</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>28.49700904498837</v>
+        <v>28.51990722034163</v>
       </c>
       <c r="C220">
-        <v>28.28569052921586</v>
+        <v>27.76389081240958</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>28.44336290321316</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>28.22398337534536</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>28.30190671010541</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>28.36493218680387</v>
+        <v>28.3874517645054</v>
       </c>
       <c r="C221">
-        <v>28.15592388933396</v>
+        <v>27.63253315957178</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>28.31175643790224</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>28.09126294872749</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>28.1703338428493</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>28.23299279362334</v>
+        <v>28.25513059024979</v>
       </c>
       <c r="C222">
-        <v>28.02628863652255</v>
+        <v>27.50131151959669</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>28.18028153949179</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>27.95867680094038</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>28.03889486553804</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>28.10119077377787</v>
+        <v>28.12294359935539</v>
       </c>
       <c r="C223">
-        <v>27.89678467298815</v>
+        <v>27.37022582766797</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>28.04893807835366</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>27.82622481160816</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>27.90758966576984</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>27.96952603621776</v>
+        <v>27.99089069360184</v>
       </c>
       <c r="C224">
-        <v>27.76741190119403</v>
+        <v>27.2392760191293</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>27.91772592490963</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>27.69390686064393</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>27.77641813145648</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>27.83799849051254</v>
+        <v>27.85897177496128</v>
       </c>
       <c r="C225">
-        <v>27.63817022392967</v>
+        <v>27.10846202936469</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>27.7866449497086</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>27.56172282825348</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>27.64538015080862</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>27.70660804686689</v>
+        <v>27.72718674522869</v>
       </c>
       <c r="C226">
-        <v>27.50905954428285</v>
+        <v>26.9777837937465</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>27.65569502337266</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>27.42967259494689</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>27.51447561242297</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>27.57535461614056</v>
+        <v>27.59553550681709</v>
       </c>
       <c r="C227">
-        <v>27.38007976563406</v>
+        <v>26.84724124778401</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>27.52487601660712</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>27.29775604152171</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>27.38370440521938</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>27.44423810983636</v>
+        <v>27.46401796221643</v>
       </c>
       <c r="C228">
-        <v>27.25123079171182</v>
+        <v>26.71683432720603</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>27.3941878001727</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>27.16597304908028</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>27.25306641846308</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>27.31325844012368</v>
+        <v>27.33263401414843</v>
       </c>
       <c r="C229">
-        <v>27.12251252658098</v>
+        <v>26.58656296786538</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>27.26363024497591</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>27.03432349902873</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>27.12256154173784</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>27.18241551985398</v>
+        <v>27.20138356543023</v>
       </c>
       <c r="C230">
-        <v>26.99392487464177</v>
+        <v>26.4564271057783</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>27.13320322200408</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>26.90280727309564</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>26.99218966502498</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>27.05170926256132</v>
+        <v>27.07026651926661</v>
       </c>
       <c r="C231">
-        <v>26.86546774065261</v>
+        <v>26.32642667730548</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>27.00290660233582</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>26.77142425330464</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>26.86195067865404</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>26.92113958247038</v>
+        <v>26.93928277910348</v>
       </c>
       <c r="C232">
-        <v>26.73714102975082</v>
+        <v>26.19656161905002</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>26.87274025710188</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>26.64017432199716</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>26.73184447332249</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>26.79070639451768</v>
+        <v>26.80843224865467</v>
       </c>
       <c r="C233">
-        <v>26.60894464744491</v>
+        <v>26.06683186784826</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>26.74270405759952</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>26.50905736183192</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>26.60187094009864</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>26.66040961436332</v>
+        <v>26.67771483187822</v>
       </c>
       <c r="C234">
-        <v>26.48087849962304</v>
+        <v>25.9372373609674</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>26.61279787520794</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>26.37807325580146</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>26.47202997043226</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>26.53024915838378</v>
+        <v>26.54713043306799</v>
       </c>
       <c r="C235">
-        <v>26.35294249258464</v>
+        <v>25.80777803602129</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>26.48302158140563</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>26.24722188721269</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>26.3423214561574</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>26.40022494369864</v>
+        <v>26.41667895683898</v>
       </c>
       <c r="C236">
-        <v>26.22513653303368</v>
+        <v>25.67845383094906</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>26.35337504773766</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>26.11650313969841</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>26.21274528949812</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>26.27033688819366</v>
+        <v>26.28636030812834</v>
       </c>
       <c r="C237">
-        <v>26.09746052808469</v>
+        <v>25.54926468418646</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>26.22385814590743</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>25.98591689722422</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>26.08330136308503</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>26.14058491049857</v>
+        <v>26.15617439217651</v>
       </c>
       <c r="C238">
-        <v>25.96991438528935</v>
+        <v>25.42021053460815</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>26.09447074770912</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>25.85546304410168</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>25.95398956994835</v>
       </c>
     </row>
   </sheetData>
